--- a/MFI/MFI.xlsx
+++ b/MFI/MFI.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL NUC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/Documents/Indicators/MFI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -71,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -135,7 +141,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -218,73 +224,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="125"/>
                 <c:pt idx="14">
-                  <c:v>72.031144902076662</c:v>
+                  <c:v>72.03114490207666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.836177264826077</c:v>
+                  <c:v>76.83617726482608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.987810616955159</c:v>
+                  <c:v>81.98781061695515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.568752701310757</c:v>
+                  <c:v>76.56875270131075</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82.117417907741981</c:v>
+                  <c:v>82.11741790774198</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.719342103271089</c:v>
+                  <c:v>76.71934210327109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74.747402916547486</c:v>
+                  <c:v>74.74740291654748</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>68.351619996779576</c:v>
+                  <c:v>68.35161999677957</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67.174860851354808</c:v>
+                  <c:v>67.17486085135481</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.299870283328232</c:v>
+                  <c:v>66.29987028332823</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.771300467686117</c:v>
+                  <c:v>58.77130046768612</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>49.77489837604255</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.286288957008232</c:v>
+                  <c:v>50.28628895700823</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>58.187657028873822</c:v>
+                  <c:v>58.18765702887382</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.136213573976939</c:v>
+                  <c:v>59.13621357397694</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52.598383154549708</c:v>
+                  <c:v>52.5983831545497</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.792136702972044</c:v>
+                  <c:v>45.79213670297204</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45.32369479426869</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.794593532991776</c:v>
+                  <c:v>37.79459353299177</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>46.03740648075393</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47.297203428304208</c:v>
+                  <c:v>47.29720342830421</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54.366120099696403</c:v>
+                  <c:v>54.3661200996964</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55.137948378332574</c:v>
+                  <c:v>55.13794837833257</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>57.45704638466556</c:v>
@@ -296,253 +302,253 @@
                   <c:v>62.04482188759377</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>69.511205286477093</c:v>
+                  <c:v>69.5112052864771</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71.676820159049043</c:v>
+                  <c:v>71.67682015904904</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.518339195229188</c:v>
+                  <c:v>62.51833919522919</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58.917468298998841</c:v>
+                  <c:v>58.91746829899884</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55.148120534826866</c:v>
+                  <c:v>55.14812053482686</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60.521570533287985</c:v>
+                  <c:v>60.52157053328798</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>64.978049420062234</c:v>
+                  <c:v>64.97804942006223</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>64.498560869389578</c:v>
+                  <c:v>64.49856086938957</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>64.270908060442366</c:v>
+                  <c:v>64.27090806044237</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.761772682412314</c:v>
+                  <c:v>63.76177268241231</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63.849195236537554</c:v>
+                  <c:v>63.84919523653755</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62.339649415631662</c:v>
+                  <c:v>62.33964941563166</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.764141734924785</c:v>
+                  <c:v>61.76414173492478</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>68.598593923456974</c:v>
+                  <c:v>68.59859392345697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>69.106946046303747</c:v>
+                  <c:v>69.10694604630375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>61.361787740650762</c:v>
+                  <c:v>61.36178774065076</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>64.693232057349093</c:v>
+                  <c:v>64.69323205734909</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.218208697660913</c:v>
+                  <c:v>67.21820869766091</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>78.587582090932045</c:v>
+                  <c:v>78.58758209093204</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78.427039856212559</c:v>
+                  <c:v>78.42703985621255</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>79.043729346506467</c:v>
+                  <c:v>79.04372934650647</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>79.186342909934808</c:v>
+                  <c:v>79.18634290993481</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>78.763200874133744</c:v>
+                  <c:v>78.76320087413374</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>78.896101261769331</c:v>
+                  <c:v>78.89610126176933</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>78.607024994582886</c:v>
+                  <c:v>78.60702499458288</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>72.81200768343183</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67.096274482513735</c:v>
+                  <c:v>67.09627448251373</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66.793353951261025</c:v>
+                  <c:v>66.79335395126102</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>53.97502567276635</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>65.257703794815399</c:v>
+                  <c:v>65.2577037948154</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>63.158874113610196</c:v>
+                  <c:v>63.1588741136102</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>69.688780838698989</c:v>
+                  <c:v>69.68878083869899</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62.641297039422014</c:v>
+                  <c:v>62.64129703942201</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>54.486238858425992</c:v>
+                  <c:v>54.486238858426</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>47.828502038685464</c:v>
+                  <c:v>47.82850203868546</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40.943454355394302</c:v>
+                  <c:v>40.9434543553943</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>34.65286188831368</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>27.500055630297211</c:v>
+                  <c:v>27.50005563029721</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29.862169960538125</c:v>
+                  <c:v>29.86216996053813</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>34.524762886370098</c:v>
+                  <c:v>34.5247628863701</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>39.815730583724175</c:v>
+                  <c:v>39.81573058372418</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>34.821564271710471</c:v>
+                  <c:v>34.82156427171047</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>35.608969846462784</c:v>
+                  <c:v>35.60896984646278</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>29.804768451495775</c:v>
+                  <c:v>29.80476845149577</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30.209686453746812</c:v>
+                  <c:v>30.20968645374681</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>24.853257852170614</c:v>
+                  <c:v>24.85325785217061</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.151217490947587</c:v>
+                  <c:v>30.15121749094759</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>31.131074154145423</c:v>
+                  <c:v>31.13107415414542</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>31.235529819041773</c:v>
+                  <c:v>31.23552981904177</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>36.812735219666415</c:v>
+                  <c:v>36.81273521966641</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>38.301294680968674</c:v>
+                  <c:v>38.30129468096867</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>40.084452952974985</c:v>
+                  <c:v>40.08445295297498</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>39.035839042522106</c:v>
+                  <c:v>39.0358390425221</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>39.360174050979829</c:v>
+                  <c:v>39.36017405097982</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37.642570630593681</c:v>
+                  <c:v>37.64257063059368</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>45.572176256879075</c:v>
+                  <c:v>45.57217625687907</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>53.730867342616534</c:v>
+                  <c:v>53.73086734261653</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>53.704593884645249</c:v>
+                  <c:v>53.70459388464525</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>55.147725217568507</c:v>
+                  <c:v>55.14772521756851</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>63.141940092010756</c:v>
+                  <c:v>63.14194009201076</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>57.499677974859807</c:v>
+                  <c:v>57.4996779748598</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>63.679007312999246</c:v>
+                  <c:v>63.67900731299924</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>71.420279733125142</c:v>
+                  <c:v>71.42027973312514</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>71.596770360994867</c:v>
+                  <c:v>71.59677036099487</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>78.584420445139315</c:v>
+                  <c:v>78.5844204451393</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>75.722075737363667</c:v>
+                  <c:v>75.72207573736367</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>69.6113326279836</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>62.682607359819805</c:v>
+                  <c:v>62.6826073598198</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>63.269083176741667</c:v>
+                  <c:v>63.26908317674167</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>62.351832420072839</c:v>
+                  <c:v>62.35183242007284</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>53.644371488343673</c:v>
+                  <c:v>53.64437148834367</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>53.838419859665713</c:v>
+                  <c:v>53.83841985966571</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>59.116095334764566</c:v>
+                  <c:v>59.11609533476457</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>57.903380707794611</c:v>
+                  <c:v>57.90338070779461</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>63.465173164442099</c:v>
+                  <c:v>63.4651731644421</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>57.063152717360659</c:v>
+                  <c:v>57.06315271736066</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>56.319979252951292</c:v>
+                  <c:v>56.3199792529513</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>55.942315061938622</c:v>
+                  <c:v>55.94231506193862</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>49.469008368068039</c:v>
+                  <c:v>49.46900836806804</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>60.592435105941938</c:v>
+                  <c:v>60.59243510594193</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>66.69351284722832</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>67.492573985688495</c:v>
+                  <c:v>67.4925739856885</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>60.942589355347792</c:v>
+                  <c:v>60.94258935534779</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>60.67641295386062</c:v>
@@ -554,7 +560,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F52B-40E4-8434-B5C11FA772E5}"/>
             </c:ext>
@@ -569,11 +575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1835200608"/>
-        <c:axId val="1835203520"/>
+        <c:axId val="1438698720"/>
+        <c:axId val="1606252064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1835200608"/>
+        <c:axId val="1438698720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1835203520"/>
+        <c:crossAx val="1606252064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1835203520"/>
+        <c:axId val="1606252064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1835200608"/>
+        <c:crossAx val="1438698720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1283,16 +1289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1579,20 +1585,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43487</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>4687261305.8786669</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43488</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>3552551705.7388</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43489</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>3891871043.039</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43490</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>5256242563.2495003</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f>IF(I5&gt;I4,J5,0)</f>
         <v>5256242563.2495003</v>
       </c>
       <c r="L5">
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43493</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>4071038181.5763001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43494</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43495</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43496</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43497</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43500</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43501</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43502</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43503</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>5451319558</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43504</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>4045350647.6400003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43507</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>72.031144902076662</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43508</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>76.836177264826077</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43509</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>81.987810616955159</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43510</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>76.568752701310757</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43511</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>82.117417907741981</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43515</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>76.719342103271089</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43516</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>74.747402916547486</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43517</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>68.351619996779576</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43518</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>67.174860851354808</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43521</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>66.299870283328232</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43522</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>58.771300467686117</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43523</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>49.77489837604255</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43524</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>50.286288957008232</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43525</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>58.187657028873822</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43528</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>59.136213573976939</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43529</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>52.598383154549708</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43530</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>45.792136702972044</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43531</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>45.32369479426869</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43532</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>37.794593532991776</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43535</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>46.03740648075393</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43536</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>47.297203428304208</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43537</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>54.366120099696403</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43538</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>55.137948378332574</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43539</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>57.45704638466556</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43542</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>63.02007715141788</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43543</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>62.04482188759377</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43544</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>69.511205286477093</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43545</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>71.676820159049043</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43546</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>62.518339195229188</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43549</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>58.917468298998841</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43550</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>55.148120534826866</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43551</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>60.521570533287985</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43552</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>64.978049420062234</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43553</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>64.498560869389578</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43556</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>64.270908060442366</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43557</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>63.761772682412314</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43558</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>63.849195236537554</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43559</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>62.339649415631662</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43560</v>
       </c>
@@ -4163,7 +4169,7 @@
         <v>61.764141734924785</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43563</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>68.598593923456974</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43564</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>69.106946046303747</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43565</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>61.361787740650762</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43566</v>
       </c>
@@ -4367,7 +4373,7 @@
         <v>64.693232057349093</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43567</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>67.218208697660913</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43570</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>78.587582090932045</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43571</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>78.427039856212559</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43572</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>79.043729346506467</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43573</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>79.186342909934808</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43577</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>78.763200874133744</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43578</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>78.896101261769331</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43579</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>78.607024994582886</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43580</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>72.81200768343183</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43581</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>67.096274482513735</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43584</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>66.793353951261025</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43585</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>53.97502567276635</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43586</v>
       </c>
@@ -5030,7 +5036,7 @@
         <v>65.257703794815399</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43587</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>63.158874113610196</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43588</v>
       </c>
@@ -5132,7 +5138,7 @@
         <v>69.688780838698989</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43591</v>
       </c>
@@ -5183,7 +5189,7 @@
         <v>62.641297039422014</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43592</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>54.486238858425992</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43593</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>47.828502038685464</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43594</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>40.943454355394302</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43595</v>
       </c>
@@ -5387,7 +5393,7 @@
         <v>34.65286188831368</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43598</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>27.500055630297211</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43599</v>
       </c>
@@ -5489,7 +5495,7 @@
         <v>29.862169960538125</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43600</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>34.524762886370098</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43601</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>39.815730583724175</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43602</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>34.821564271710471</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43605</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>35.608969846462784</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43606</v>
       </c>
@@ -5744,7 +5750,7 @@
         <v>29.804768451495775</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43607</v>
       </c>
@@ -5795,7 +5801,7 @@
         <v>30.209686453746812</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43608</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>24.853257852170614</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43609</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>30.151217490947587</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43613</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>31.131074154145423</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43614</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>31.235529819041773</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43615</v>
       </c>
@@ -6050,7 +6056,7 @@
         <v>36.812735219666415</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43616</v>
       </c>
@@ -6101,7 +6107,7 @@
         <v>38.301294680968674</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43619</v>
       </c>
@@ -6152,7 +6158,7 @@
         <v>40.084452952974985</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43620</v>
       </c>
@@ -6203,7 +6209,7 @@
         <v>39.035839042522106</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43621</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>39.360174050979829</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43622</v>
       </c>
@@ -6305,7 +6311,7 @@
         <v>37.642570630593681</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43623</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>45.572176256879075</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43626</v>
       </c>
@@ -6407,7 +6413,7 @@
         <v>53.730867342616534</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43627</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>53.704593884645249</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43628</v>
       </c>
@@ -6509,7 +6515,7 @@
         <v>55.147725217568507</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43629</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>63.141940092010756</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43630</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>57.499677974859807</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43633</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>63.679007312999246</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43634</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>71.420279733125142</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43635</v>
       </c>
@@ -6764,7 +6770,7 @@
         <v>71.596770360994867</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43636</v>
       </c>
@@ -6815,7 +6821,7 @@
         <v>78.584420445139315</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43637</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>75.722075737363667</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43640</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>69.6113326279836</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43641</v>
       </c>
@@ -6968,7 +6974,7 @@
         <v>62.682607359819805</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43642</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>63.269083176741667</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43643</v>
       </c>
@@ -7070,7 +7076,7 @@
         <v>62.351832420072839</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43644</v>
       </c>
@@ -7121,7 +7127,7 @@
         <v>53.644371488343673</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43647</v>
       </c>
@@ -7172,7 +7178,7 @@
         <v>53.838419859665713</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43648</v>
       </c>
@@ -7223,7 +7229,7 @@
         <v>59.116095334764566</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43649</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>57.903380707794611</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43651</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>63.465173164442099</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43654</v>
       </c>
@@ -7376,7 +7382,7 @@
         <v>57.063152717360659</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43655</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>56.319979252951292</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43656</v>
       </c>
@@ -7478,7 +7484,7 @@
         <v>55.942315061938622</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43657</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>49.469008368068039</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43658</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>60.592435105941938</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43661</v>
       </c>
@@ -7631,7 +7637,7 @@
         <v>66.69351284722832</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43662</v>
       </c>
@@ -7682,7 +7688,7 @@
         <v>67.492573985688495</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43663</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>60.942589355347792</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43664</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>60.67641295386062</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43665</v>
       </c>
